--- a/01 - EES/04 - UNDER ANALYSIS/01 - INF AND ENF/planilla de caudales.xlsx
+++ b/01 - EES/04 - UNDER ANALYSIS/01 - INF AND ENF/planilla de caudales.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barral Pablo\Documents\GitHub\Technology-of-Heat\01 - EES\04 - UNDER ANALYSIS\01 - INF AND ENF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E9A685-4BCB-4ACB-B87D-B4A3B9CF3F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C23024-D86D-4D84-BAD5-C83BAF571788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="676" activeTab="2" xr2:uid="{0D6F317B-FCCF-410F-A385-6F1AE6E7E774}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="676" activeTab="1" xr2:uid="{0D6F317B-FCCF-410F-A385-6F1AE6E7E774}"/>
   </bookViews>
   <sheets>
     <sheet name="Locales" sheetId="3" r:id="rId1"/>
-    <sheet name="Aberturas" sheetId="6" r:id="rId2"/>
-    <sheet name="Infiltración" sheetId="4" r:id="rId3"/>
-    <sheet name="Resumen Infiltración" sheetId="7" r:id="rId4"/>
+    <sheet name="Infiltración" sheetId="4" r:id="rId2"/>
+    <sheet name="Resumen Infiltración" sheetId="7" r:id="rId3"/>
+    <sheet name="Aberturas" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -44,7 +44,7 @@
     <author>Pablo Martin Barral</author>
   </authors>
   <commentList>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{D62B15CF-8C76-48C3-B192-A630C6C37F03}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{A4DEB2A3-FE0B-4035-8248-0816399341EA}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Si bien en la documentación no está expresado (dice 5 Pa(g) para que no haya flujo), vamos a dejarlo en 0 Pa(g).</t>
+Este valor está ajustado para que entre lo mismo a este recinto que lo que ingresa desde el 2-22.</t>
         </r>
       </text>
     </comment>
@@ -73,64 +73,6 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Pablo Martin Barral</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{3215D4A9-6095-4E19-9AA5-724D409F52D6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Pablo Martin Barral:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En caso de que quisiera puertas con rejas, tendría que agregarlas. Por ejemplo: P4 c/reja de tal modelo.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{94AB0B04-60B0-4FCC-BDBB-86CF574C1F47}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Pablo Martin Barral:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En esta columna se puede hardcodear el valor de sección, por si la propuesta no es un valor aceptable.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pablo Martin Barral</author>
@@ -187,12 +129,142 @@
         </r>
       </text>
     </comment>
+    <comment ref="N36" authorId="0" shapeId="0" xr:uid="{CA318301-E687-477C-ADAA-370AE76A77CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pablo Martin Barral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Este caudal es para cumplir el balance en el recinto 2-14-1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N49" authorId="0" shapeId="0" xr:uid="{7F9F73D6-908C-4B46-B9BA-3200D19B6EFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pablo Martin Barral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Valor estimado para la ducha de aire.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Pablo Martin Barral</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{3215D4A9-6095-4E19-9AA5-724D409F52D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pablo Martin Barral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En caso de que quisiera puertas con rejas, tendría que agregarlas. Por ejemplo: P4 c/reja de tal modelo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{94AB0B04-60B0-4FCC-BDBB-86CF574C1F47}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pablo Martin Barral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En esta columna se puede hardcodear el valor de sección, por si la propuesta no es un valor aceptable.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{E7BB1F74-C8CD-4D29-A8C9-21AE5E4C318A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pablo Martin Barral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En esta columna se puede hardcodear el valor de sección, por si la propuesta no es un valor aceptable.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="165">
   <si>
     <t>Local</t>
   </si>
@@ -588,9 +660,6 @@
     <t>Pp8</t>
   </si>
   <si>
-    <t>Ducha seca</t>
-  </si>
-  <si>
     <t>Notas</t>
   </si>
   <si>
@@ -759,20 +828,137 @@
     <t>SALA DE CIRUGÍA</t>
   </si>
   <si>
-    <t>Este valor está hardcodeado, la que debería ajustarse es la presión del recinto.</t>
-  </si>
-  <si>
     <t>Este tiene que estar para cumplir el balance.</t>
   </si>
   <si>
-    <t>Valor estimado para la ducha de aire.</t>
-  </si>
-  <si>
     <t>Densidad</t>
+  </si>
+  <si>
+    <t>A=0,011200000 [m^2]</t>
+  </si>
+  <si>
+    <t>A=0,011440000 [m^2]</t>
+  </si>
+  <si>
+    <t>A=0,012160000 [m^2]</t>
+  </si>
+  <si>
+    <t>A=0,017200000 [m^2]</t>
+  </si>
+  <si>
+    <t>A=0,020440000 [m^2]</t>
+  </si>
+  <si>
+    <t>A=0,021000000 [m^2]</t>
+  </si>
+  <si>
+    <t>A=0,022600000 [m^2]</t>
+  </si>
+  <si>
+    <t>A=0,013360000 [m^2]</t>
+  </si>
+  <si>
+    <t>A=0,013600000 [m^2]</t>
+  </si>
+  <si>
+    <t>A=0,012800000 [m^2]</t>
+  </si>
+  <si>
+    <t>A=0,013200000 [m^2]</t>
+  </si>
+  <si>
+    <t>A=0,011600000 [m^2]</t>
+  </si>
+  <si>
+    <t>A=0,014600000 [m^2]</t>
+  </si>
+  <si>
+    <t>ducha seca</t>
   </si>
   <si>
     <r>
       <t>Abertura
+[m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Grilla
+[m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Total
+[m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sección adoptada
 [cm</t>
     </r>
     <r>
@@ -797,70 +983,17 @@
       <t>]</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t>Grilla
-[cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Total
-[cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="3">
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,6 +1062,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -985,7 +1126,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1026,17 +1167,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1045,13 +1179,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1374,9 +1522,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,10 +1566,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="10">
         <v>12.64</v>
@@ -1435,10 +1583,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="10">
         <v>3.63</v>
@@ -1452,10 +1600,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="10">
         <v>3.69</v>
@@ -1469,10 +1617,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="10">
         <v>26.38</v>
@@ -1486,10 +1634,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="10">
         <v>17.190000000000001</v>
@@ -1503,10 +1651,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="10">
         <v>24.44</v>
@@ -1520,10 +1668,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="10">
         <v>28.89</v>
@@ -1537,10 +1685,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="10">
         <v>29.64</v>
@@ -1554,10 +1702,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="10">
         <v>11.59</v>
@@ -1571,10 +1719,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="10">
         <v>13.68</v>
@@ -1588,10 +1736,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="10">
         <v>40.04</v>
@@ -1605,10 +1753,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="10">
         <v>5.39</v>
@@ -1622,10 +1770,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="10">
         <v>36.06</v>
@@ -1639,10 +1787,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="10">
         <v>46.67</v>
@@ -1673,10 +1821,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="10">
         <v>3.89</v>
@@ -1690,10 +1838,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="10">
         <v>10.58</v>
@@ -1707,10 +1855,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="10">
         <v>8.3800000000000008</v>
@@ -1724,10 +1872,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="10">
         <v>9.31</v>
@@ -1741,10 +1889,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="10">
         <v>20.190000000000001</v>
@@ -1758,10 +1906,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="10">
         <v>17.52</v>
@@ -1775,10 +1923,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="10">
         <v>21.43</v>
@@ -1786,16 +1934,16 @@
       <c r="D24" s="10">
         <v>2.6</v>
       </c>
-      <c r="E24" s="7">
-        <v>-5</v>
+      <c r="E24" s="22">
+        <v>-5.8940000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="10">
         <v>13.38</v>
@@ -1889,7 +2037,7 @@
         <v>3.25</v>
       </c>
       <c r="E30" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,282 +2357,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0266AF63-3E72-485C-814B-116D4AA5BD32}">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="18">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="18">
-        <v>112.00000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="18">
-        <v>48.000000000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="18">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="18">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="18">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094FA5D9-04DC-4EEB-AFAF-15B17B9CCCC4}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L47" sqref="L47"/>
+      <selection pane="bottomRight" activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,14 +2382,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
@@ -2522,25 +2403,25 @@
         <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>66</v>
@@ -2579,28 +2460,28 @@
       <c r="H2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <f>IF(H2="",0,+VLOOKUP(H2,Aberturas!A:B,2,FALSE))</f>
-        <v>52</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="15">
+      <c r="K2" s="14">
         <f>IF(J2="",0,+VLOOKUP(J2,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="13">
         <f>+K2+I2+L2</f>
-        <v>52</v>
-      </c>
-      <c r="N2" s="23">
-        <f>+M2/100^2*$Q$1*SQRT(2*G2/$Q$2)*3600</f>
-        <v>64.259461121376475</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N2" s="19">
+        <f>+M2*$Q$1*SQRT(2*G2/$Q$2)*3600</f>
+        <v>158.17713506800368</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q2" s="22">
+        <v>146</v>
+      </c>
+      <c r="Q2" s="18">
         <v>1.0756859553616578</v>
       </c>
     </row>
@@ -2634,23 +2515,23 @@
       <c r="H3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <f>IF(H3="",0,+VLOOKUP(H3,Aberturas!A:B,2,FALSE))</f>
-        <v>52</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <f>IF(J3="",0,+VLOOKUP(J3,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="13">
         <f t="shared" ref="M3:M54" si="1">+K3+I3+L3</f>
-        <v>52</v>
-      </c>
-      <c r="N3" s="23">
-        <f t="shared" ref="N3:N54" si="2">+M3/100^2*$Q$1*SQRT(2*G3/$Q$2)*3600</f>
-        <v>74.200434352814</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N3" s="19">
+        <f t="shared" ref="N3:N54" si="2">+M3*$Q$1*SQRT(2*G3/$Q$2)*3600</f>
+        <v>182.64722302231144</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
@@ -2674,35 +2555,35 @@
       </c>
       <c r="F4" s="4">
         <f>+VLOOKUP(C4,Locales!A:E,5,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4" si="3">+E4-F4</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <f>IF(H4="",0,+VLOOKUP(H4,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <f>IF(J4="",0,+VLOOKUP(J4,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N4" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>100</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N4" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="90" x14ac:dyDescent="0.25">
@@ -2735,26 +2616,26 @@
       <c r="H5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <f>IF(H5="",0,+VLOOKUP(H5,Aberturas!A:B,2,FALSE))</f>
-        <v>112.00000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <f>IF(J5="",0,+VLOOKUP(J5,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="13">
         <f t="shared" si="1"/>
-        <v>112.00000000000001</v>
-      </c>
-      <c r="N5" s="23">
-        <f t="shared" si="2"/>
-        <v>79.908160072261239</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>100</v>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N5" s="19">
+        <f t="shared" si="2"/>
+        <v>149.82780013548981</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="90" x14ac:dyDescent="0.25">
@@ -2787,26 +2668,26 @@
       <c r="H6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <f>IF(H6="",0,+VLOOKUP(H6,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.46E-2</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f>IF(J6="",0,+VLOOKUP(J6,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N6" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>100</v>
+        <v>1.46E-2</v>
+      </c>
+      <c r="N6" s="19">
+        <f t="shared" si="2"/>
+        <v>104.16599437991198</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
@@ -2839,26 +2720,26 @@
       <c r="H7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <f>IF(H7="",0,+VLOOKUP(H7,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.1440000000000001E-2</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f>IF(J7="",0,+VLOOKUP(J7,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N7" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>100</v>
+        <v>1.1440000000000001E-2</v>
+      </c>
+      <c r="N7" s="19">
+        <f t="shared" si="2"/>
+        <v>81.620477788095414</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="90" x14ac:dyDescent="0.25">
@@ -2891,26 +2772,26 @@
       <c r="H8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <f>IF(H8="",0,+VLOOKUP(H8,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.1440000000000001E-2</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f>IF(J8="",0,+VLOOKUP(J8,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N8" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="O8" s="20" t="s">
-        <v>100</v>
+        <v>1.1440000000000001E-2</v>
+      </c>
+      <c r="N8" s="19">
+        <f t="shared" si="2"/>
+        <v>81.620477788095414</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="90" x14ac:dyDescent="0.25">
@@ -2943,26 +2824,26 @@
       <c r="H9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <f>IF(H9="",0,+VLOOKUP(H9,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.1440000000000001E-2</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <f>IF(J9="",0,+VLOOKUP(J9,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N9" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>100</v>
+        <v>1.1440000000000001E-2</v>
+      </c>
+      <c r="N9" s="19">
+        <f t="shared" si="2"/>
+        <v>81.620477788095414</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="90" x14ac:dyDescent="0.25">
@@ -2995,26 +2876,26 @@
       <c r="H10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <f>IF(H10="",0,+VLOOKUP(H10,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <f>IF(J10="",0,+VLOOKUP(J10,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N10" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>100</v>
+        <v>1.2160000000000001E-2</v>
+      </c>
+      <c r="N10" s="19">
+        <f t="shared" si="2"/>
+        <v>86.757430935597924</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="90" x14ac:dyDescent="0.25">
@@ -3047,40 +2928,40 @@
       <c r="H11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <f>IF(H11="",0,+VLOOKUP(H11,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.1440000000000001E-2</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <f>IF(J11="",0,+VLOOKUP(J11,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N11" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>100</v>
+        <v>1.1440000000000001E-2</v>
+      </c>
+      <c r="N11" s="19">
+        <f t="shared" si="2"/>
+        <v>81.620477788095414</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19" t="str">
+      <c r="B12" s="16" t="str">
         <f>+VLOOKUP(A12,Locales!A:E,2,FALSE)</f>
         <v>PASILLO</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="19" t="str">
+      <c r="D12" s="16" t="str">
         <f>+VLOOKUP(C12,Locales!A:E,2,FALSE)</f>
         <v>EXTERIOR</v>
       </c>
@@ -3097,12 +2978,12 @@
         <v>0</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <f>IF(H12="",0,+VLOOKUP(H12,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <f>IF(J12="",0,+VLOOKUP(J12,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
@@ -3111,12 +2992,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>101</v>
+      <c r="N12" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3149,23 +3030,23 @@
       <c r="H13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <f>IF(H13="",0,+VLOOKUP(H13,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <f>IF(J13="",0,+VLOOKUP(J13,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N13" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N13" s="19">
+        <f t="shared" si="2"/>
+        <v>91.323611511155718</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3198,23 +3079,23 @@
       <c r="H14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <f>IF(H14="",0,+VLOOKUP(H14,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <f>IF(J14="",0,+VLOOKUP(J14,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N14" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
+        <v>1.336E-2</v>
+      </c>
+      <c r="N14" s="19">
+        <f t="shared" si="2"/>
+        <v>95.319019514768769</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3247,23 +3128,23 @@
       <c r="H15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <f>IF(H15="",0,+VLOOKUP(H15,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <f>IF(J15="",0,+VLOOKUP(J15,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N15" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
+        <v>1.336E-2</v>
+      </c>
+      <c r="N15" s="19">
+        <f t="shared" si="2"/>
+        <v>95.319019514768769</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3296,23 +3177,23 @@
       <c r="H16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="14">
         <f>IF(H16="",0,+VLOOKUP(H16,Aberturas!A:B,2,FALSE))</f>
-        <v>52</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="15">
+      <c r="K16" s="14">
         <f>IF(J16="",0,+VLOOKUP(J16,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="13">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="N16" s="23">
-        <f t="shared" si="2"/>
-        <v>52.46763029786203</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N16" s="19">
+        <f t="shared" si="2"/>
+        <v>129.1510899639681</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -3345,23 +3226,23 @@
       <c r="H17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="14">
         <f>IF(H17="",0,+VLOOKUP(H17,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <f>IF(J17="",0,+VLOOKUP(J17,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N17" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
+        <v>1.336E-2</v>
+      </c>
+      <c r="N17" s="19">
+        <f t="shared" si="2"/>
+        <v>95.319019514768769</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3394,23 +3275,23 @@
       <c r="H18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="14">
         <f>IF(H18="",0,+VLOOKUP(H18,Aberturas!A:B,2,FALSE))</f>
-        <v>52</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <f>IF(J18="",0,+VLOOKUP(J18,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="13">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="N18" s="23">
-        <f t="shared" si="2"/>
-        <v>52.46763029786203</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N18" s="19">
+        <f t="shared" si="2"/>
+        <v>129.1510899639681</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3443,23 +3324,23 @@
       <c r="H19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="14">
         <f>IF(H19="",0,+VLOOKUP(H19,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="15">
+      <c r="K19" s="14">
         <f>IF(J19="",0,+VLOOKUP(J19,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N19" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
+        <v>1.336E-2</v>
+      </c>
+      <c r="N19" s="19">
+        <f t="shared" si="2"/>
+        <v>95.319019514768769</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3492,23 +3373,23 @@
       <c r="H20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="14">
         <f>IF(H20="",0,+VLOOKUP(H20,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="15">
+      <c r="K20" s="14">
         <f>IF(J20="",0,+VLOOKUP(J20,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N20" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N20" s="19">
+        <f t="shared" si="2"/>
+        <v>91.323611511155718</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="90" x14ac:dyDescent="0.25">
@@ -3541,26 +3422,26 @@
       <c r="H21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <f>IF(H21="",0,+VLOOKUP(H21,Aberturas!A:B,2,FALSE))</f>
-        <v>120</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <f>IF(J21="",0,+VLOOKUP(J21,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="13">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="N21" s="23">
-        <f t="shared" si="2"/>
-        <v>85.615885791708479</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>100</v>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N21" s="19">
+        <f t="shared" si="2"/>
+        <v>149.82780013548981</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="90" x14ac:dyDescent="0.25">
@@ -3593,62 +3474,62 @@
       <c r="H22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="14">
         <f>IF(H22="",0,+VLOOKUP(H22,Aberturas!A:B,2,FALSE))</f>
-        <v>120</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="15">
+      <c r="K22" s="14">
         <f>IF(J22="",0,+VLOOKUP(J22,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="13">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="N22" s="23">
-        <f t="shared" si="2"/>
-        <v>85.615885791708479</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>100</v>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N22" s="19">
+        <f t="shared" si="2"/>
+        <v>149.82780013548981</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="K23" s="15"/>
+      <c r="K23" s="14"/>
       <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="K24" s="15"/>
+      <c r="K24" s="14"/>
       <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="K25" s="15"/>
+      <c r="K25" s="14"/>
       <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="K26" s="15"/>
+      <c r="K26" s="14"/>
       <c r="M26" s="13"/>
-      <c r="N26" s="14"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="K27" s="15"/>
+      <c r="K27" s="14"/>
       <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -3659,7 +3540,7 @@
         <v>PASILLO DE IMÁGENES</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4" t="str">
         <f>+VLOOKUP(C28,Locales!A:E,2,FALSE)</f>
@@ -3671,37 +3552,37 @@
       </c>
       <c r="F28" s="4">
         <f>+VLOOKUP(C28,Locales!A:E,5,FALSE)</f>
-        <v>-5</v>
+        <v>-5.8940000000000001</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" ref="G28" si="6">+E28-F28</f>
-        <v>10</v>
+        <v>10.894</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="14">
         <f>IF(H28="",0,+VLOOKUP(H28,Aberturas!A:B,2,FALSE))</f>
-        <v>48.000000000000007</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="15">
+      <c r="K28" s="14">
         <f>IF(J28="",0,+VLOOKUP(J28,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="13">
         <f t="shared" si="1"/>
-        <v>48.000000000000007</v>
-      </c>
-      <c r="N28" s="23">
-        <f t="shared" si="2"/>
-        <v>48.431658736488039</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N28" s="19">
+        <f t="shared" si="2"/>
+        <v>134.80058011728639</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>+VLOOKUP(A29,Locales!A:E,2,FALSE)</f>
@@ -3729,38 +3610,35 @@
       <c r="H29" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="14">
         <f>IF(H29="",0,+VLOOKUP(H29,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="15">
+      <c r="K29" s="14">
         <f>IF(J29="",0,+VLOOKUP(J29,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N29" s="23">
-        <f t="shared" si="2"/>
-        <v>40.359715613740036</v>
-      </c>
-      <c r="O29" t="s">
-        <v>146</v>
+        <v>1.336E-2</v>
+      </c>
+      <c r="N29" s="19">
+        <f t="shared" si="2"/>
+        <v>134.80145014989171</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="4" t="str">
         <f>+VLOOKUP(A30,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="4" t="str">
         <f>+VLOOKUP(C30,Locales!A:E,2,FALSE)</f>
@@ -3781,35 +3659,35 @@
       <c r="H30" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="14">
         <f>IF(H30="",0,+VLOOKUP(H30,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="15">
+      <c r="K30" s="14">
         <f>IF(J30="",0,+VLOOKUP(J30,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N30" s="23">
-        <f t="shared" si="2"/>
-        <v>49.430354708751153</v>
+        <v>1.336E-2</v>
+      </c>
+      <c r="N30" s="19">
+        <f t="shared" si="2"/>
+        <v>165.09738472722884</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>+VLOOKUP(A31,Locales!A:E,2,FALSE)</f>
         <v>SALA DE CIRUGÍA</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="4" t="str">
         <f>+VLOOKUP(C31,Locales!A:E,2,FALSE)</f>
@@ -3830,35 +3708,35 @@
       <c r="H31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="14">
         <f>IF(H31="",0,+VLOOKUP(H31,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.32E-2</v>
       </c>
       <c r="J31" s="6"/>
-      <c r="K31" s="15">
+      <c r="K31" s="14">
         <f>IF(J31="",0,+VLOOKUP(J31,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N31" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
+        <v>1.32E-2</v>
+      </c>
+      <c r="N31" s="19">
+        <f t="shared" si="2"/>
+        <v>94.177474370879324</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="4" t="str">
         <f>+VLOOKUP(A32,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="4" t="str">
         <f>+VLOOKUP(C32,Locales!A:E,2,FALSE)</f>
@@ -3879,35 +3757,35 @@
       <c r="H32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="14">
         <f>IF(H32="",0,+VLOOKUP(H32,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.1440000000000001E-2</v>
       </c>
       <c r="J32" s="6"/>
-      <c r="K32" s="15">
+      <c r="K32" s="14">
         <f>IF(J32="",0,+VLOOKUP(J32,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N32" s="23">
-        <f t="shared" si="2"/>
-        <v>49.430354708751153</v>
+        <v>1.1440000000000001E-2</v>
+      </c>
+      <c r="N32" s="19">
+        <f t="shared" si="2"/>
+        <v>141.37081446702831</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="4" t="str">
         <f>+VLOOKUP(A33,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="4" t="str">
         <f>+VLOOKUP(C33,Locales!A:E,2,FALSE)</f>
@@ -3928,35 +3806,35 @@
       <c r="H33" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="14">
         <f>IF(H33="",0,+VLOOKUP(H33,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J33" s="6"/>
-      <c r="K33" s="15">
+      <c r="K33" s="14">
         <f>IF(J33="",0,+VLOOKUP(J33,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N33" s="23">
-        <f t="shared" si="2"/>
-        <v>49.430354708751153</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N33" s="19">
+        <f t="shared" si="2"/>
+        <v>158.17713506800368</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>+VLOOKUP(A34,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="4" t="str">
         <f>+VLOOKUP(C34,Locales!A:E,2,FALSE)</f>
@@ -3977,35 +3855,35 @@
       <c r="H34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="14">
         <f>IF(H34="",0,+VLOOKUP(H34,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="15">
+      <c r="K34" s="14">
         <f>IF(J34="",0,+VLOOKUP(J34,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N34" s="23">
-        <f t="shared" si="2"/>
-        <v>49.430354708751153</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N34" s="19">
+        <f t="shared" si="2"/>
+        <v>158.17713506800368</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="4" t="str">
         <f>+VLOOKUP(A35,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="4" t="str">
         <f>+VLOOKUP(C35,Locales!A:E,2,FALSE)</f>
@@ -4026,28 +3904,28 @@
       <c r="H35" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="14">
         <f>IF(H35="",0,+VLOOKUP(H35,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J35" s="6"/>
-      <c r="K35" s="15">
+      <c r="K35" s="14">
         <f>IF(J35="",0,+VLOOKUP(J35,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N35" s="23">
-        <f t="shared" si="2"/>
-        <v>49.430354708751153</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N35" s="19">
+        <f t="shared" si="2"/>
+        <v>158.17713506800368</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="4" t="str">
         <f>+VLOOKUP(A36,Locales!A:E,2,FALSE)</f>
@@ -4073,12 +3951,12 @@
         <v>0</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="15">
+      <c r="I36" s="14">
         <f>IF(H36="",0,+VLOOKUP(H36,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="J36" s="6"/>
-      <c r="K36" s="15">
+      <c r="K36" s="14">
         <f>IF(J36="",0,+VLOOKUP(J36,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
@@ -4087,24 +3965,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N36" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="N36" s="26">
+        <f>+N49+N47</f>
+        <v>311.88850697213513</v>
       </c>
       <c r="O36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="4" t="str">
         <f>+VLOOKUP(A37,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="4" t="str">
         <f>+VLOOKUP(C37,Locales!A:E,2,FALSE)</f>
@@ -4125,35 +4003,35 @@
       <c r="H37" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="14">
         <f>IF(H37="",0,+VLOOKUP(H37,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J37" s="6"/>
-      <c r="K37" s="15">
+      <c r="K37" s="14">
         <f>IF(J37="",0,+VLOOKUP(J37,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N37" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
+        <v>1.336E-2</v>
+      </c>
+      <c r="N37" s="19">
+        <f t="shared" si="2"/>
+        <v>95.319019514768769</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="4" t="str">
         <f>+VLOOKUP(A38,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="4" t="str">
         <f>+VLOOKUP(C38,Locales!A:E,2,FALSE)</f>
@@ -4174,35 +4052,35 @@
       <c r="H38" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="14">
         <f>IF(H38="",0,+VLOOKUP(H38,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="J38" s="6"/>
-      <c r="K38" s="15">
+      <c r="K38" s="14">
         <f>IF(J38="",0,+VLOOKUP(J38,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N38" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N38" s="19">
+        <f t="shared" si="2"/>
+        <v>82.762022931984845</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="4" t="str">
         <f>+VLOOKUP(A39,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="4" t="str">
         <f>+VLOOKUP(C39,Locales!A:E,2,FALSE)</f>
@@ -4223,35 +4101,35 @@
       <c r="H39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="14">
         <f>IF(H39="",0,+VLOOKUP(H39,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J39" s="6"/>
-      <c r="K39" s="15">
+      <c r="K39" s="14">
         <f>IF(J39="",0,+VLOOKUP(J39,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N39" s="23">
-        <f t="shared" si="2"/>
-        <v>69.905078022028647</v>
+        <v>1.336E-2</v>
+      </c>
+      <c r="N39" s="19">
+        <f t="shared" si="2"/>
+        <v>233.48296059357568</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40" s="4" t="str">
         <f>+VLOOKUP(A40,Locales!A:E,2,FALSE)</f>
         <v>CUARENTENA</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="4" t="str">
         <f>+VLOOKUP(C40,Locales!A:E,2,FALSE)</f>
@@ -4272,35 +4150,35 @@
       <c r="H40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="14">
         <f>IF(H40="",0,+VLOOKUP(H40,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J40" s="6"/>
-      <c r="K40" s="15">
+      <c r="K40" s="14">
         <f>IF(J40="",0,+VLOOKUP(J40,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N40" s="23">
-        <f t="shared" si="2"/>
-        <v>49.430354708751153</v>
+        <v>1.336E-2</v>
+      </c>
+      <c r="N40" s="19">
+        <f t="shared" si="2"/>
+        <v>165.09738472722884</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="4" t="str">
         <f>+VLOOKUP(A41,Locales!A:E,2,FALSE)</f>
         <v>ÁREA DE LIMPIEZA</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="4" t="str">
         <f>+VLOOKUP(C41,Locales!A:E,2,FALSE)</f>
@@ -4321,35 +4199,35 @@
       <c r="H41" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="14">
         <f>IF(H41="",0,+VLOOKUP(H41,Aberturas!A:B,2,FALSE))</f>
-        <v>52</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J41" s="6"/>
-      <c r="K41" s="15">
+      <c r="K41" s="14">
         <f>IF(J41="",0,+VLOOKUP(J41,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="13">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="N41" s="23">
-        <f t="shared" si="2"/>
-        <v>74.200434352814</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N41" s="19">
+        <f t="shared" si="2"/>
+        <v>182.64722302231144</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="4" t="str">
         <f>+VLOOKUP(A42,Locales!A:E,2,FALSE)</f>
         <v>CUARENTENA</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="4" t="str">
         <f>+VLOOKUP(C42,Locales!A:E,2,FALSE)</f>
@@ -4370,35 +4248,35 @@
       <c r="H42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="14">
         <f>IF(H42="",0,+VLOOKUP(H42,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J42" s="6"/>
-      <c r="K42" s="15">
+      <c r="K42" s="14">
         <f>IF(J42="",0,+VLOOKUP(J42,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N42" s="23">
-        <f t="shared" si="2"/>
-        <v>49.430354708751153</v>
+        <v>1.336E-2</v>
+      </c>
+      <c r="N42" s="19">
+        <f t="shared" si="2"/>
+        <v>165.09738472722884</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" s="4" t="str">
         <f>+VLOOKUP(A43,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="4" t="str">
         <f>+VLOOKUP(C43,Locales!A:E,2,FALSE)</f>
@@ -4419,35 +4297,35 @@
       <c r="H43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="14">
         <f>IF(H43="",0,+VLOOKUP(H43,Aberturas!A:B,2,FALSE))</f>
-        <v>60</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J43" s="6"/>
-      <c r="K43" s="15">
+      <c r="K43" s="14">
         <f>IF(J43="",0,+VLOOKUP(J43,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="13">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="N43" s="23">
-        <f t="shared" si="2"/>
-        <v>60.53957342061004</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N43" s="19">
+        <f t="shared" si="2"/>
+        <v>129.1510899639681</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="4" t="str">
         <f>+VLOOKUP(A44,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" s="4" t="str">
         <f>+VLOOKUP(C44,Locales!A:E,2,FALSE)</f>
@@ -4468,35 +4346,35 @@
       <c r="H44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="14">
         <f>IF(H44="",0,+VLOOKUP(H44,Aberturas!A:B,2,FALSE))</f>
-        <v>60</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J44" s="6"/>
-      <c r="K44" s="15">
+      <c r="K44" s="14">
         <f>IF(J44="",0,+VLOOKUP(J44,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="13">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="N44" s="23">
-        <f t="shared" si="2"/>
-        <v>60.53957342061004</v>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N44" s="19">
+        <f t="shared" si="2"/>
+        <v>129.1510899639681</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" s="4" t="str">
         <f>+VLOOKUP(A45,Locales!A:E,2,FALSE)</f>
         <v>BIOTERIO 1</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="4" t="str">
         <f>+VLOOKUP(C45,Locales!A:E,2,FALSE)</f>
@@ -4517,35 +4395,35 @@
       <c r="H45" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="14">
         <f>IF(H45="",0,+VLOOKUP(H45,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J45" s="6"/>
-      <c r="K45" s="15">
+      <c r="K45" s="14">
         <f>IF(J45="",0,+VLOOKUP(J45,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N45" s="23">
-        <f t="shared" si="2"/>
-        <v>57.077257194472317</v>
+        <v>1.336E-2</v>
+      </c>
+      <c r="N45" s="19">
+        <f t="shared" si="2"/>
+        <v>190.63803902953754</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="4" t="str">
         <f>+VLOOKUP(A46,Locales!A:E,2,FALSE)</f>
         <v>BIOTERIO 2</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" s="4" t="str">
         <f>+VLOOKUP(C46,Locales!A:E,2,FALSE)</f>
@@ -4566,23 +4444,23 @@
       <c r="H46" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="14">
         <f>IF(H46="",0,+VLOOKUP(H46,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J46" s="6"/>
-      <c r="K46" s="15">
+      <c r="K46" s="14">
         <f>IF(J46="",0,+VLOOKUP(J46,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N46" s="23">
-        <f t="shared" si="2"/>
-        <v>57.077257194472317</v>
+        <v>1.336E-2</v>
+      </c>
+      <c r="N46" s="19">
+        <f t="shared" si="2"/>
+        <v>190.63803902953754</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -4594,7 +4472,7 @@
         <v>PASILLO LIMPIO - ETAPA 1</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" s="4" t="str">
         <f>+VLOOKUP(C47,Locales!A:E,2,FALSE)</f>
@@ -4615,35 +4493,35 @@
       <c r="H47" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="14">
         <f>IF(H47="",0,+VLOOKUP(H47,Aberturas!A:B,2,FALSE))</f>
-        <v>112.00000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J47" s="6"/>
-      <c r="K47" s="15">
+      <c r="K47" s="14">
         <f>IF(J47="",0,+VLOOKUP(J47,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="13">
         <f t="shared" si="1"/>
-        <v>112.00000000000001</v>
-      </c>
-      <c r="N47" s="23">
-        <f t="shared" si="2"/>
-        <v>113.00720371847208</v>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N47" s="19">
+        <f t="shared" si="2"/>
+        <v>211.88850697213516</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="4" t="str">
         <f>+VLOOKUP(A48,Locales!A:E,2,FALSE)</f>
         <v>SALA DE CRÍA</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="4" t="str">
         <f>+VLOOKUP(C48,Locales!A:E,2,FALSE)</f>
@@ -4664,26 +4542,26 @@
       <c r="H48" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="14">
         <f>IF(H48="",0,+VLOOKUP(H48,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.336E-2</v>
       </c>
       <c r="J48" s="6"/>
-      <c r="K48" s="15">
+      <c r="K48" s="14">
         <f>IF(J48="",0,+VLOOKUP(J48,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N48" s="23">
-        <f t="shared" si="2"/>
-        <v>57.077257194472317</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.336E-2</v>
+      </c>
+      <c r="N48" s="19">
+        <f t="shared" si="2"/>
+        <v>190.63803902953754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>71</v>
       </c>
@@ -4692,7 +4570,7 @@
         <v>PASILLO LIMPIO - ETAPA 1</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="4" t="str">
         <f>+VLOOKUP(C49,Locales!A:E,2,FALSE)</f>
@@ -4711,12 +4589,12 @@
         <v>10</v>
       </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="15">
+      <c r="I49" s="14">
         <f>IF(H49="",0,+VLOOKUP(H49,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="J49" s="6"/>
-      <c r="K49" s="15">
+      <c r="K49" s="14">
         <f>IF(J49="",0,+VLOOKUP(J49,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
@@ -4725,17 +4603,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N49" s="23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N49" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B50" s="4" t="str">
         <f>+VLOOKUP(A50,Locales!A:E,2,FALSE)</f>
@@ -4763,35 +4637,35 @@
       <c r="H50" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="14">
         <f>IF(H50="",0,+VLOOKUP(H50,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="J50" s="6"/>
-      <c r="K50" s="15">
+      <c r="K50" s="14">
         <f>IF(J50="",0,+VLOOKUP(J50,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N50" s="23">
-        <f t="shared" si="2"/>
-        <v>40.359715613740036</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N50" s="19">
+        <f t="shared" si="2"/>
+        <v>117.04317527984607</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51" s="4" t="str">
         <f>+VLOOKUP(A51,Locales!A:E,2,FALSE)</f>
         <v>SAS TÉCNICO</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D51" s="4" t="str">
         <f>+VLOOKUP(C51,Locales!A:E,2,FALSE)</f>
@@ -4812,26 +4686,26 @@
       <c r="H51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="14">
         <f>IF(H51="",0,+VLOOKUP(H51,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="J51" s="6"/>
-      <c r="K51" s="15">
+      <c r="K51" s="14">
         <f>IF(J51="",0,+VLOOKUP(J51,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N51" s="23">
-        <f t="shared" si="2"/>
-        <v>57.077257194472317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N51" s="19">
+        <f t="shared" si="2"/>
+        <v>165.52404586396969</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
@@ -4840,7 +4714,7 @@
         <v>PASILLO</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D52" s="4" t="str">
         <f>+VLOOKUP(C52,Locales!A:E,2,FALSE)</f>
@@ -4861,26 +4735,26 @@
       <c r="H52" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="14">
         <f>IF(H52="",0,+VLOOKUP(H52,Aberturas!A:B,2,FALSE))</f>
-        <v>52</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J52" s="6"/>
-      <c r="K52" s="15">
+      <c r="K52" s="14">
         <f>IF(J52="",0,+VLOOKUP(J52,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="13">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="N52" s="23">
-        <f t="shared" si="2"/>
-        <v>52.46763029786203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N52" s="19">
+        <f t="shared" si="2"/>
+        <v>129.1510899639681</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>19</v>
       </c>
@@ -4889,7 +4763,7 @@
         <v>PASILLO</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D53" s="4" t="str">
         <f>+VLOOKUP(C53,Locales!A:E,2,FALSE)</f>
@@ -4910,35 +4784,35 @@
       <c r="H53" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="14">
         <f>IF(H53="",0,+VLOOKUP(H53,Aberturas!A:B,2,FALSE))</f>
-        <v>52</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J53" s="6"/>
-      <c r="K53" s="15">
+      <c r="K53" s="14">
         <f>IF(J53="",0,+VLOOKUP(J53,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="13">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="N53" s="23">
-        <f t="shared" si="2"/>
-        <v>37.100217176407</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="N53" s="19">
+        <f t="shared" si="2"/>
+        <v>91.323611511155718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54" s="4" t="str">
         <f>+VLOOKUP(A54,Locales!A:E,2,FALSE)</f>
         <v>DEPÓSITO 1</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" s="4" t="str">
         <f>+VLOOKUP(C54,Locales!A:E,2,FALSE)</f>
@@ -4959,23 +4833,23 @@
       <c r="H54" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="14">
         <f>IF(H54="",0,+VLOOKUP(H54,Aberturas!A:B,2,FALSE))</f>
-        <v>40</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="J54" s="6"/>
-      <c r="K54" s="15">
+      <c r="K54" s="14">
         <f>IF(J54="",0,+VLOOKUP(J54,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="N54" s="23">
-        <f t="shared" si="2"/>
-        <v>28.538628597236158</v>
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="N54" s="19">
+        <f t="shared" si="2"/>
+        <v>97.031337230602929</v>
       </c>
     </row>
   </sheetData>
@@ -5013,12 +4887,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11251D18-82D2-42EF-98CA-8995997C3D7B}">
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,11 +4926,11 @@
         <f>+Locales!B3</f>
         <v>VESTUARIO</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <f>SUMIF(Infiltración!$A:$A,A2,Infiltración!$N:$N)</f>
-        <v>40.359715613740036</v>
-      </c>
-      <c r="D2" s="15">
+        <v>117.04317527984607</v>
+      </c>
+      <c r="D2" s="14">
         <f>SUMIF(Infiltración!$C:$C,A2,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5070,11 +4944,11 @@
         <f>+Locales!B4</f>
         <v>SAS TÉCNICO</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <f>SUMIF(Infiltración!$A:$A,A3,Infiltración!$N:$N)</f>
-        <v>57.077257194472317</v>
-      </c>
-      <c r="D3" s="15">
+        <v>165.52404586396969</v>
+      </c>
+      <c r="D3" s="14">
         <f>SUMIF(Infiltración!$C:$C,A3,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5088,13 +4962,13 @@
         <f>+Locales!B5</f>
         <v>SAS ÁREA LIMPIA</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <f>SUMIF(Infiltración!$A:$A,A4,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>SUMIF(Infiltración!$C:$C,A4,Infiltración!$N:$N)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5106,13 +4980,13 @@
         <f>+Locales!B6</f>
         <v>PASILLO TÉCNICO</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f>SUMIF(Infiltración!$A:$A,A5,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f>SUMIF(Infiltración!$C:$C,A5,Infiltración!$N:$N)</f>
-        <v>432.94607673455261</v>
+        <v>1311.3651978966936</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5124,13 +4998,13 @@
         <f>+Locales!B7</f>
         <v>DEPÓSITO 1</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <f>SUMIF(Infiltración!$A:$A,A6,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="D6" s="15">
+        <v>97.031337230602929</v>
+      </c>
+      <c r="D6" s="14">
         <f>SUMIF(Infiltración!$C:$C,A6,Infiltración!$N:$N)</f>
-        <v>37.100217176407</v>
+        <v>91.323611511155718</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5142,13 +5016,13 @@
         <f>+Locales!B8</f>
         <v>SALA DE CRÍA</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f>SUMIF(Infiltración!$A:$A,A7,Infiltración!$N:$N)</f>
-        <v>57.077257194472317</v>
-      </c>
-      <c r="D7" s="15">
+        <v>190.63803902953754</v>
+      </c>
+      <c r="D7" s="14">
         <f>SUMIF(Infiltración!$C:$C,A7,Infiltración!$N:$N)</f>
-        <v>113.00720371847208</v>
+        <v>211.88850697213516</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5160,13 +5034,13 @@
         <f>+Locales!B9</f>
         <v>BIOTERIO 1</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <f>SUMIF(Infiltración!$A:$A,A8,Infiltración!$N:$N)</f>
-        <v>57.077257194472317</v>
-      </c>
-      <c r="D8" s="15">
+        <v>190.63803902953754</v>
+      </c>
+      <c r="D8" s="14">
         <f>SUMIF(Infiltración!$C:$C,A8,Infiltración!$N:$N)</f>
-        <v>60.53957342061004</v>
+        <v>129.1510899639681</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5178,13 +5052,13 @@
         <f>+Locales!B10</f>
         <v>BIOTERIO 2</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f>SUMIF(Infiltración!$A:$A,A9,Infiltración!$N:$N)</f>
-        <v>57.077257194472317</v>
-      </c>
-      <c r="D9" s="15">
+        <v>190.63803902953754</v>
+      </c>
+      <c r="D9" s="14">
         <f>SUMIF(Infiltración!$C:$C,A9,Infiltración!$N:$N)</f>
-        <v>60.53957342061004</v>
+        <v>129.1510899639681</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5196,11 +5070,11 @@
         <f>+Locales!B11</f>
         <v>CUARENTENA</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <f>SUMIF(Infiltración!$A:$A,A10,Infiltración!$N:$N)</f>
-        <v>98.860709417502306</v>
-      </c>
-      <c r="D10" s="15">
+        <v>330.19476945445768</v>
+      </c>
+      <c r="D10" s="14">
         <f>SUMIF(Infiltración!$C:$C,A10,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5214,13 +5088,13 @@
         <f>+Locales!B12</f>
         <v>SECTOR DE BIOPSIAS Y NECROSARIO</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <f>SUMIF(Infiltración!$A:$A,A11,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f>SUMIF(Infiltración!$C:$C,A11,Infiltración!$N:$N)</f>
-        <v>119.3354327307798</v>
+        <v>398.58034532080455</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5232,11 +5106,11 @@
         <f>+Locales!B13</f>
         <v>ÁREA DE LIMPIEZA</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <f>SUMIF(Infiltración!$A:$A,A12,Infiltración!$N:$N)</f>
-        <v>74.200434352814</v>
-      </c>
-      <c r="D12" s="15">
+        <v>182.64722302231144</v>
+      </c>
+      <c r="D12" s="14">
         <f>SUMIF(Infiltración!$C:$C,A12,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5250,13 +5124,13 @@
         <f>+Locales!B14</f>
         <v>LIMPIEZA</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <f>SUMIF(Infiltración!$A:$A,A13,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <f>SUMIF(Infiltración!$C:$C,A13,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
+        <v>82.762022931984845</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5268,13 +5142,13 @@
         <f>+Locales!B15</f>
         <v>ELEMENTOS Y CONSUMIBLES ESTERILIZADOS</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <f>SUMIF(Infiltración!$A:$A,A14,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f>SUMIF(Infiltración!$C:$C,A14,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
+        <v>95.319019514768769</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5286,13 +5160,13 @@
         <f>+Locales!B16</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <f>SUMIF(Infiltración!$A:$A,A15,Infiltración!$N:$N)</f>
-        <v>495.21325560147682</v>
-      </c>
-      <c r="D15" s="15">
+        <v>1762.7542943386688</v>
+      </c>
+      <c r="D15" s="14">
         <f>SUMIF(Infiltración!$C:$C,A15,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
+        <v>94.177474370879324</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5304,13 +5178,13 @@
         <f>+Locales!B17</f>
         <v>PASILLO LIMPIO - ETAPA 1</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <f>SUMIF(Infiltración!$A:$A,A16,Infiltración!$N:$N)</f>
-        <v>251.46709919266257</v>
-      </c>
-      <c r="D16" s="15">
+        <v>652.71286506245031</v>
+      </c>
+      <c r="D16" s="14">
         <f>SUMIF(Infiltración!$C:$C,A16,Infiltración!$N:$N)</f>
-        <v>0</v>
+        <v>311.88850697213513</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5322,13 +5196,13 @@
         <f>+Locales!B18</f>
         <v>DEPÓSITO 2</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <f>SUMIF(Infiltración!$A:$A,A17,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f>SUMIF(Infiltración!$C:$C,A17,Infiltración!$N:$N)</f>
-        <v>49.430354708751153</v>
+        <v>141.37081446702831</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5340,13 +5214,13 @@
         <f>+Locales!B19</f>
         <v>SALA DE EXPERIMENTACIÓN 1</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <f>SUMIF(Infiltración!$A:$A,A18,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <f>SUMIF(Infiltración!$C:$C,A18,Infiltración!$N:$N)</f>
-        <v>49.430354708751153</v>
+        <v>158.17713506800368</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5358,13 +5232,13 @@
         <f>+Locales!B20</f>
         <v>SALA DE EXPERIMENTACIÓN 2</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <f>SUMIF(Infiltración!$A:$A,A19,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <f>SUMIF(Infiltración!$C:$C,A19,Infiltración!$N:$N)</f>
-        <v>49.430354708751153</v>
+        <v>158.17713506800368</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5376,13 +5250,13 @@
         <f>+Locales!B21</f>
         <v>SALA DE EXPERIMENTACIÓN 3</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <f>SUMIF(Infiltración!$A:$A,A20,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <f>SUMIF(Infiltración!$C:$C,A20,Infiltración!$N:$N)</f>
-        <v>49.430354708751153</v>
+        <v>158.17713506800368</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5394,11 +5268,11 @@
         <f>+Locales!B22</f>
         <v>SALA DE CIRUGÍA</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <f>SUMIF(Infiltración!$A:$A,A21,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="D21" s="15">
+        <v>94.177474370879324</v>
+      </c>
+      <c r="D21" s="14">
         <f>SUMIF(Infiltración!$C:$C,A21,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5412,13 +5286,13 @@
         <f>+Locales!B23</f>
         <v>SALA DE EQUIPOS</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <f>SUMIF(Infiltración!$A:$A,A22,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <f>SUMIF(Infiltración!$C:$C,A22,Infiltración!$N:$N)</f>
-        <v>49.430354708751153</v>
+        <v>165.09738472722884</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5430,13 +5304,13 @@
         <f>+Locales!B24</f>
         <v>LABORATORIO DE PREPARACIÓN</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <f>SUMIF(Infiltración!$A:$A,A23,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <f>SUMIF(Infiltración!$C:$C,A23,Infiltración!$N:$N)</f>
-        <v>48.431658736488039</v>
+        <v>134.80058011728639</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5448,11 +5322,11 @@
         <f>+Locales!B25</f>
         <v>SALA DE PREPARACIÓN</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <f>SUMIF(Infiltración!$A:$A,A24,Infiltración!$N:$N)</f>
-        <v>40.359715613740036</v>
-      </c>
-      <c r="D24" s="15">
+        <v>134.80145014989171</v>
+      </c>
+      <c r="D24" s="14">
         <f>SUMIF(Infiltración!$C:$C,A24,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5466,13 +5340,13 @@
         <f>+Locales!B26</f>
         <v>PASILLO DE IMÁGENES</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <f>SUMIF(Infiltración!$A:$A,A25,Infiltración!$N:$N)</f>
-        <v>76.970287333724201</v>
-      </c>
-      <c r="D25" s="15">
+        <v>134.80058011728639</v>
+      </c>
+      <c r="D25" s="14">
         <f>SUMIF(Infiltración!$C:$C,A25,Infiltración!$N:$N)</f>
-        <v>213.06596540461393</v>
+        <v>546.9723797332972</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5484,11 +5358,11 @@
         <f>+Locales!B27</f>
         <v>MICRO PET</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <f>SUMIF(Infiltración!$A:$A,A26,Infiltración!$N:$N)</f>
-        <v>79.908160072261239</v>
-      </c>
-      <c r="D26" s="15">
+        <v>149.82780013548981</v>
+      </c>
+      <c r="D26" s="14">
         <f>SUMIF(Infiltración!$C:$C,A26,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5502,11 +5376,11 @@
         <f>+Locales!B28</f>
         <v>SALA DE CONTROL</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <f>SUMIF(Infiltración!$A:$A,A27,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <f>SUMIF(Infiltración!$C:$C,A27,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5520,11 +5394,11 @@
         <f>+Locales!B29</f>
         <v>MICRO RMN</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <f>SUMIF(Infiltración!$A:$A,A28,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="D28" s="15">
+        <v>104.16599437991198</v>
+      </c>
+      <c r="D28" s="14">
         <f>SUMIF(Infiltración!$C:$C,A28,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5538,13 +5412,13 @@
         <f>+Locales!B30</f>
         <v>SALA DE MÁQUINAS</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <f>SUMIF(Infiltración!$A:$A,A29,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <f>SUMIF(Infiltración!$C:$C,A29,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5556,13 +5430,13 @@
         <f>+Locales!B31</f>
         <v>PASILLO</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <f>SUMIF(Infiltración!$A:$A,A30,Infiltración!$N:$N)</f>
-        <v>232.26099046044982</v>
-      </c>
-      <c r="D30" s="15">
+        <v>633.71404356310347</v>
+      </c>
+      <c r="D30" s="14">
         <f>SUMIF(Infiltración!$C:$C,A30,Infiltración!$N:$N)</f>
-        <v>419.26581074293119</v>
+        <v>952.9671980158422</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5574,11 +5448,11 @@
         <f>+Locales!B32</f>
         <v>SALA DE ANÁLISIS DE MUESTRAS IRRADIADAS</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <f>SUMIF(Infiltración!$A:$A,A31,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="D31" s="15">
+        <v>91.323611511155718</v>
+      </c>
+      <c r="D31" s="14">
         <f>SUMIF(Infiltración!$C:$C,A31,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5592,13 +5466,13 @@
         <f>+Locales!B33</f>
         <v>SAS RADIOBIOLOGÍA</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <f>SUMIF(Infiltración!$A:$A,A32,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="D32" s="15">
+        <v>95.319019514768769</v>
+      </c>
+      <c r="D32" s="14">
         <f>SUMIF(Infiltración!$C:$C,A32,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
+        <v>95.319019514768769</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5610,13 +5484,13 @@
         <f>+Locales!B34</f>
         <v>LABORATORIO DE RADIOBIOLOGÍA</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <f>SUMIF(Infiltración!$A:$A,A33,Infiltración!$N:$N)</f>
-        <v>81.006258895098185</v>
-      </c>
-      <c r="D33" s="15">
+        <v>224.47010947873687</v>
+      </c>
+      <c r="D33" s="14">
         <f>SUMIF(Infiltración!$C:$C,A33,Infiltración!$N:$N)</f>
-        <v>114.15451438894463</v>
+        <v>373.28526205184897</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5628,11 +5502,11 @@
         <f>+Locales!B35</f>
         <v>RADIOBIODOSIMETRÍA</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="14">
         <f>SUMIF(Infiltración!$A:$A,A34,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="D34" s="15">
+        <v>95.319019514768769</v>
+      </c>
+      <c r="D34" s="14">
         <f>SUMIF(Infiltración!$C:$C,A34,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5646,11 +5520,11 @@
         <f>+Locales!B36</f>
         <v>SALA DE RACKS</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="14">
         <f>SUMIF(Infiltración!$A:$A,A35,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <f>SUMIF(Infiltración!$C:$C,A35,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5664,11 +5538,11 @@
         <f>+Locales!B37</f>
         <v>SECTOR DE RADIOBIOLOGÍA</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="14">
         <f>SUMIF(Infiltración!$A:$A,A36,Infiltración!$N:$N)</f>
-        <v>52.46763029786203</v>
-      </c>
-      <c r="D36" s="15">
+        <v>129.1510899639681</v>
+      </c>
+      <c r="D36" s="14">
         <f>SUMIF(Infiltración!$C:$C,A36,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5682,11 +5556,11 @@
         <f>+Locales!B38</f>
         <v>RADIOBIOLOGÍA MOLECULAR</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="14">
         <f>SUMIF(Infiltración!$A:$A,A37,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="D37" s="15">
+        <v>95.319019514768769</v>
+      </c>
+      <c r="D37" s="14">
         <f>SUMIF(Infiltración!$C:$C,A37,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5700,11 +5574,11 @@
         <f>+Locales!B39</f>
         <v>SALA DE IRRADIACIÓN DE MUESTRAS</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="14">
         <f>SUMIF(Infiltración!$A:$A,A38,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
-      </c>
-      <c r="D38" s="15">
+        <v>91.323611511155718</v>
+      </c>
+      <c r="D38" s="14">
         <f>SUMIF(Infiltración!$C:$C,A38,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5718,11 +5592,11 @@
         <f>+Locales!B40</f>
         <v>SALA DE CONTROL PET</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="14">
         <f>SUMIF(Infiltración!$A:$A,A39,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <f>SUMIF(Infiltración!$C:$C,A39,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5736,13 +5610,13 @@
         <f>+Locales!B41</f>
         <v>VESTUARIO HOMBRES</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="14">
         <f>SUMIF(Infiltración!$A:$A,A40,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <f>SUMIF(Infiltración!$C:$C,A40,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
+        <v>81.620477788095414</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5754,13 +5628,13 @@
         <f>+Locales!B42</f>
         <v>KICHINET</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="14">
         <f>SUMIF(Infiltración!$A:$A,A41,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <f>SUMIF(Infiltración!$C:$C,A41,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
+        <v>81.620477788095414</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5772,13 +5646,13 @@
         <f>+Locales!B43</f>
         <v>BAÑO ADAPTADO</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="14">
         <f>SUMIF(Infiltración!$A:$A,A42,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <f>SUMIF(Infiltración!$C:$C,A42,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
+        <v>86.757430935597924</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5790,13 +5664,13 @@
         <f>+Locales!B44</f>
         <v>DEPÓSITO DE LIMPIEZA</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <f>SUMIF(Infiltración!$A:$A,A43,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <f>SUMIF(Infiltración!$C:$C,A43,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
+        <v>81.620477788095414</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5808,11 +5682,11 @@
         <f>+Locales!B45</f>
         <v>ESPACIO 3</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="14">
         <f>SUMIF(Infiltración!$A:$A,A44,Infiltración!$N:$N)</f>
-        <v>85.615885791708479</v>
-      </c>
-      <c r="D44" s="15">
+        <v>149.82780013548981</v>
+      </c>
+      <c r="D44" s="14">
         <f>SUMIF(Infiltración!$C:$C,A44,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5826,11 +5700,11 @@
         <f>+Locales!B46</f>
         <v>ESPACIO 4</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="14">
         <f>SUMIF(Infiltración!$A:$A,A45,Infiltración!$N:$N)</f>
-        <v>85.615885791708479</v>
-      </c>
-      <c r="D45" s="15">
+        <v>149.82780013548981</v>
+      </c>
+      <c r="D45" s="14">
         <f>SUMIF(Infiltración!$C:$C,A45,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5844,13 +5718,13 @@
         <f>+Locales!B47</f>
         <v>VESTUARIO MUJERES</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="14">
         <f>SUMIF(Infiltración!$A:$A,A46,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="14">
         <f>SUMIF(Infiltración!$C:$C,A46,Infiltración!$N:$N)</f>
-        <v>28.538628597236158</v>
+        <v>81.620477788095414</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5862,11 +5736,11 @@
         <f>+Locales!B48</f>
         <v>SALA DE TABLEROS</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="14">
         <f>SUMIF(Infiltración!$A:$A,A47,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="14">
         <f>SUMIF(Infiltración!$C:$C,A47,Infiltración!$N:$N)</f>
         <v>0</v>
       </c>
@@ -5877,4 +5751,772 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0266AF63-3E72-485C-814B-116D4AA5BD32}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23">
+        <f>+B3*100*100</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
+        <f t="shared" ref="C4:C31" si="0">+B4*100*100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0</v>
+      </c>
+      <c r="C5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0</v>
+      </c>
+      <c r="C6" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1.12E-2</v>
+      </c>
+      <c r="C7" s="23">
+        <f t="shared" si="0"/>
+        <v>111.99999999999999</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="str">
+        <f>LEFT(D7, LEN(D7) - 6)</f>
+        <v>A=0,011200000</v>
+      </c>
+      <c r="F7" t="str">
+        <f>RIGHT(E7, LEN(E7) - 2)</f>
+        <v>0,011200000</v>
+      </c>
+      <c r="G7">
+        <f>+VALUE(F7)</f>
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1.1440000000000001E-2</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" si="0"/>
+        <v>114.4</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ref="E8:E31" si="1">LEFT(D8, LEN(D8) - 6)</f>
+        <v>A=0,011440000</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ref="F8:F31" si="2">RIGHT(E8, LEN(E8) - 2)</f>
+        <v>0,011440000</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G31" si="3">+VALUE(F8)</f>
+        <v>1.1440000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1.2160000000000001E-2</v>
+      </c>
+      <c r="C9" s="23">
+        <f t="shared" si="0"/>
+        <v>121.6</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,012160000</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,012160000</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>1.2160000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1.72E-2</v>
+      </c>
+      <c r="C10" s="23">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,017200000</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>0,017200000</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2.044E-2</v>
+      </c>
+      <c r="C11" s="23">
+        <f t="shared" si="0"/>
+        <v>204.4</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,020440000</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>0,020440000</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>2.044E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="21">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C12" s="23">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,021000000</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>0,021000000</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="21">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" si="0"/>
+        <v>225.99999999999997</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,022600000</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>0,022600000</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>2.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1.72E-2</v>
+      </c>
+      <c r="C14" s="23">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,017200000</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>0,017200000</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="21">
+        <v>1.12E-2</v>
+      </c>
+      <c r="C15" s="23">
+        <f t="shared" si="0"/>
+        <v>111.99999999999999</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,011200000</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>0,011200000</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="21">
+        <v>1.336E-2</v>
+      </c>
+      <c r="C16" s="23">
+        <f t="shared" si="0"/>
+        <v>133.6</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,013360000</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>0,013360000</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>1.336E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="21">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="C17" s="23">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,013600000</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>0,013600000</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1.336E-2</v>
+      </c>
+      <c r="C18" s="23">
+        <f t="shared" si="0"/>
+        <v>133.6</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,013360000</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>0,013360000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>1.336E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="21">
+        <v>1.336E-2</v>
+      </c>
+      <c r="C19" s="23">
+        <f t="shared" si="0"/>
+        <v>133.6</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,013360000</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v>0,013360000</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>1.336E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="21">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C20" s="23">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,021000000</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>0,021000000</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="21">
+        <v>1.336E-2</v>
+      </c>
+      <c r="C21" s="23">
+        <f t="shared" si="0"/>
+        <v>133.6</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,013360000</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>0,013360000</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>1.336E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="21">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="C22" s="23">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,012800000</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v>0,012800000</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="21">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="C23" s="23">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,012800000</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>0,012800000</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="21">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="C24" s="23">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,012800000</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>0,012800000</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="21">
+        <v>1.32E-2</v>
+      </c>
+      <c r="C25" s="23">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,013200000</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>0,013200000</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="21">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="C26" s="23">
+        <f t="shared" si="0"/>
+        <v>115.99999999999999</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,011600000</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>0,011600000</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="21">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="C27" s="23">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,012800000</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>0,012800000</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="21">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="C28" s="23">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,012800000</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>0,012800000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="21">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="C29" s="23">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,013600000</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>0,013600000</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="21">
+        <v>1.46E-2</v>
+      </c>
+      <c r="C30" s="23">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,014600000</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>0,014600000</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="21">
+        <v>1.32E-2</v>
+      </c>
+      <c r="C31" s="23">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>A=0,013200000</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>0,013200000</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>1.32E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/01 - EES/04 - UNDER ANALYSIS/01 - INF AND ENF/planilla de caudales.xlsx
+++ b/01 - EES/04 - UNDER ANALYSIS/01 - INF AND ENF/planilla de caudales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barral Pablo\Documents\GitHub\Technology-of-Heat\01 - EES\04 - UNDER ANALYSIS\01 - INF AND ENF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C23024-D86D-4D84-BAD5-C83BAF571788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBEC3AD-F20D-4FFB-834D-4AF70214CF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="676" activeTab="1" xr2:uid="{0D6F317B-FCCF-410F-A385-6F1AE6E7E774}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="676" activeTab="2" xr2:uid="{0D6F317B-FCCF-410F-A385-6F1AE6E7E774}"/>
   </bookViews>
   <sheets>
     <sheet name="Locales" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,35 @@
     <sheet name="Resumen Infiltración" sheetId="7" r:id="rId3"/>
     <sheet name="Aberturas" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Locales!$E$30</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Locales!$G$30</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">120</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,6 +94,30 @@
           </rPr>
           <t xml:space="preserve">
 Este valor está ajustado para que entre lo mismo a este recinto que lo que ingresa desde el 2-22.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{F4FB3A57-315F-4FD7-A713-EDBA4529885C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pablo Martin Barral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Este valor está hardcodeado para que pueda infiltrar 120m3/h por las hendijs de la puerta.</t>
         </r>
       </text>
     </comment>
@@ -126,6 +179,126 @@
           </rPr>
           <t xml:space="preserve">
 Si hay un local, por ejemplo el pasillo 2-28, que ecualiza con el ambiente, podría llegar a no calcularlo a partir de las aberturas. NO es lo ideal, pero es más simple. Simplemente infiltra todo lo que necesita. Lo importante es no pasarse y generarle, a la fuerza, una depresión elevada.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{AFE4798D-6CC7-48B1-A287-65F1AF20D915}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pablo Martin Barral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se agrega una grilla de transferencia para que no haya mucha depresión dentro del local.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{3CDB63EC-594E-4AC0-9A11-56C49C2755BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pablo Martin Barral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se agrega una grilla de transferencia para que no haya mucha depresión dentro del local.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{45A56A2D-75DA-451E-A7C0-69056A02A01F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pablo Martin Barral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se agrega una grilla de transferencia para que no haya mucha depresión dentro del local.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{C4EAEB6F-54CA-475C-98CC-626A1736FCD3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pablo Martin Barral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hay que agregar una grilla para lograr la infiltración requerida (pues necesito ingresar aire exterior) con el diferencial de presión requerido.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{6E0C3FF5-4723-4CDF-B8C7-86E23544BCEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pablo Martin Barral:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hay que agregar una grilla para lograr la infiltración requerida (pues necesito ingresar aire exterior) con el diferencial de presión requerido.</t>
         </r>
       </text>
     </comment>
@@ -264,7 +437,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="162">
   <si>
     <t>Local</t>
   </si>
@@ -690,12 +863,6 @@
     </r>
   </si>
   <si>
-    <t>Este valor está hardcodeado. Hay que poner una reja de transferencia que nos garantice esa infiltración.</t>
-  </si>
-  <si>
-    <t>El caudal está hardcodeado para que se verifique el balance de caudales.</t>
-  </si>
-  <si>
     <t>2-13</t>
   </si>
   <si>
@@ -826,9 +993,6 @@
   </si>
   <si>
     <t>SALA DE CIRUGÍA</t>
-  </si>
-  <si>
-    <t>Este tiene que estar para cumplir el balance.</t>
   </si>
   <si>
     <t>Densidad</t>
@@ -989,9 +1153,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1126,7 +1290,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1164,7 +1328,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1179,28 +1343,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1520,11 +1688,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142A2D14-1CD6-49C0-825A-6D3C7A792957}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F24" sqref="F24"/>
+      <selection pane="topRight" activeCell="F46" sqref="F45:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,10 +1734,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="10">
         <v>12.64</v>
@@ -1583,10 +1751,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="10">
         <v>3.63</v>
@@ -1600,10 +1768,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="10">
         <v>3.69</v>
@@ -1617,10 +1785,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="10">
         <v>26.38</v>
@@ -1634,10 +1802,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="10">
         <v>17.190000000000001</v>
@@ -1651,10 +1819,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="10">
         <v>24.44</v>
@@ -1668,10 +1836,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="10">
         <v>28.89</v>
@@ -1685,10 +1853,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" s="10">
         <v>29.64</v>
@@ -1702,10 +1870,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="10">
         <v>11.59</v>
@@ -1719,10 +1887,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12" s="10">
         <v>13.68</v>
@@ -1736,10 +1904,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="10">
         <v>40.04</v>
@@ -1753,10 +1921,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C14" s="10">
         <v>5.39</v>
@@ -1770,10 +1938,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" s="10">
         <v>36.06</v>
@@ -1787,10 +1955,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C16" s="10">
         <v>46.67</v>
@@ -1802,7 +1970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>71</v>
       </c>
@@ -1819,12 +1987,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="10">
         <v>3.89</v>
@@ -1836,12 +2004,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C19" s="10">
         <v>10.58</v>
@@ -1853,12 +2021,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" s="10">
         <v>8.3800000000000008</v>
@@ -1870,12 +2038,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" s="10">
         <v>9.31</v>
@@ -1887,12 +2055,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="10">
         <v>20.190000000000001</v>
@@ -1904,12 +2072,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C23" s="10">
         <v>17.52</v>
@@ -1921,12 +2089,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="10">
         <v>21.43</v>
@@ -1934,16 +2102,16 @@
       <c r="D24" s="10">
         <v>2.6</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>-5.8940000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" s="10">
         <v>13.38</v>
@@ -1955,7 +2123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
@@ -1972,7 +2140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
@@ -1989,7 +2157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>16</v>
       </c>
@@ -2006,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>17</v>
       </c>
@@ -2023,7 +2191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
@@ -2036,11 +2204,12 @@
       <c r="D30" s="10">
         <v>3.25</v>
       </c>
-      <c r="E30" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="21">
+        <v>-3.633</v>
+      </c>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>19</v>
       </c>
@@ -2057,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
@@ -2074,7 +2243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>28</v>
       </c>
@@ -2091,7 +2260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>30</v>
       </c>
@@ -2108,7 +2277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>32</v>
       </c>
@@ -2125,7 +2294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
@@ -2142,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>34</v>
       </c>
@@ -2159,7 +2328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -2176,7 +2345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>38</v>
       </c>
@@ -2193,7 +2362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>20</v>
       </c>
@@ -2210,7 +2379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>45</v>
       </c>
@@ -2227,7 +2396,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>47</v>
       </c>
@@ -2244,7 +2413,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>49</v>
       </c>
@@ -2261,7 +2430,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>51</v>
       </c>
@@ -2278,7 +2447,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>22</v>
       </c>
@@ -2294,8 +2463,9 @@
       <c r="E45" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>24</v>
       </c>
@@ -2311,8 +2481,9 @@
       <c r="E46" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>53</v>
       </c>
@@ -2329,7 +2500,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>43</v>
       </c>
@@ -2361,11 +2532,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O44" sqref="O44"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,14 +2553,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
@@ -2403,19 +2574,19 @@
         <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>65</v>
@@ -2460,7 +2631,7 @@
       <c r="H2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="27">
         <f>IF(H2="",0,+VLOOKUP(H2,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -2479,7 +2650,7 @@
         <v>158.17713506800368</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q2" s="18">
         <v>1.0756859553616578</v>
@@ -2515,7 +2686,7 @@
       <c r="H3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="27">
         <f>IF(H3="",0,+VLOOKUP(H3,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -2534,7 +2705,7 @@
         <v>182.64722302231144</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -2555,16 +2726,16 @@
       </c>
       <c r="F4" s="4">
         <f>+VLOOKUP(C4,Locales!A:E,5,FALSE)</f>
-        <v>5</v>
+        <v>-3.633</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4" si="3">+E4-F4</f>
-        <v>0</v>
+        <v>8.6329999999999991</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="27">
         <f>IF(H4="",0,+VLOOKUP(H4,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -2580,13 +2751,11 @@
       </c>
       <c r="N4" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>119.99936452650884</v>
+      </c>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -2616,7 +2785,7 @@
       <c r="H5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="27">
         <f>IF(H5="",0,+VLOOKUP(H5,Aberturas!A:B,2,FALSE))</f>
         <v>2.1000000000000001E-2</v>
       </c>
@@ -2634,11 +2803,9 @@
         <f t="shared" si="2"/>
         <v>149.82780013548981</v>
       </c>
-      <c r="O5" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -2668,7 +2835,7 @@
       <c r="H6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="27">
         <f>IF(H6="",0,+VLOOKUP(H6,Aberturas!A:B,2,FALSE))</f>
         <v>1.46E-2</v>
       </c>
@@ -2686,11 +2853,9 @@
         <f t="shared" si="2"/>
         <v>104.16599437991198</v>
       </c>
-      <c r="O6" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -2720,7 +2885,7 @@
       <c r="H7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="27">
         <f>IF(H7="",0,+VLOOKUP(H7,Aberturas!A:B,2,FALSE))</f>
         <v>1.1440000000000001E-2</v>
       </c>
@@ -2729,20 +2894,20 @@
         <f>IF(J7="",0,+VLOOKUP(J7,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="21">
+        <v>3.9300000000000002E-2</v>
+      </c>
       <c r="M7" s="13">
         <f t="shared" si="1"/>
-        <v>1.1440000000000001E-2</v>
+        <v>5.074E-2</v>
       </c>
       <c r="N7" s="19">
         <f t="shared" si="2"/>
-        <v>81.620477788095414</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>362.01250375594066</v>
+      </c>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -2772,7 +2937,7 @@
       <c r="H8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="27">
         <f>IF(H8="",0,+VLOOKUP(H8,Aberturas!A:B,2,FALSE))</f>
         <v>1.1440000000000001E-2</v>
       </c>
@@ -2781,20 +2946,20 @@
         <f>IF(J8="",0,+VLOOKUP(J8,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="21">
+        <v>5.4579999999999997E-2</v>
+      </c>
       <c r="M8" s="13">
         <f t="shared" si="1"/>
-        <v>1.1440000000000001E-2</v>
+        <v>6.6019999999999995E-2</v>
       </c>
       <c r="N8" s="19">
         <f t="shared" si="2"/>
-        <v>81.620477788095414</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>471.03006499738274</v>
+      </c>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -2824,7 +2989,7 @@
       <c r="H9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="27">
         <f>IF(H9="",0,+VLOOKUP(H9,Aberturas!A:B,2,FALSE))</f>
         <v>1.1440000000000001E-2</v>
       </c>
@@ -2833,20 +2998,20 @@
         <f>IF(J9="",0,+VLOOKUP(J9,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="21">
+        <v>2.3879999999999998E-2</v>
+      </c>
       <c r="M9" s="13">
         <f t="shared" si="1"/>
-        <v>1.1440000000000001E-2</v>
+        <v>3.5319999999999997E-2</v>
       </c>
       <c r="N9" s="19">
         <f t="shared" si="2"/>
-        <v>81.620477788095414</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>251.99609051359528</v>
+      </c>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -2876,7 +3041,7 @@
       <c r="H10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="27">
         <f>IF(H10="",0,+VLOOKUP(H10,Aberturas!A:B,2,FALSE))</f>
         <v>1.2160000000000001E-2</v>
       </c>
@@ -2885,20 +3050,20 @@
         <f>IF(J10="",0,+VLOOKUP(J10,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="21">
+        <v>9.1450000000000004E-3</v>
+      </c>
       <c r="M10" s="13">
         <f t="shared" si="1"/>
-        <v>1.2160000000000001E-2</v>
+        <v>2.1305000000000001E-2</v>
       </c>
       <c r="N10" s="19">
         <f t="shared" si="2"/>
-        <v>86.757430935597924</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+        <v>152.00387056602909</v>
+      </c>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2928,7 +3093,7 @@
       <c r="H11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="27">
         <f>IF(H11="",0,+VLOOKUP(H11,Aberturas!A:B,2,FALSE))</f>
         <v>1.1440000000000001E-2</v>
       </c>
@@ -2937,20 +3102,20 @@
         <f>IF(J11="",0,+VLOOKUP(J11,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="21">
+        <v>2.6544999999999999E-2</v>
+      </c>
       <c r="M11" s="13">
         <f t="shared" si="1"/>
-        <v>1.1440000000000001E-2</v>
+        <v>3.7984999999999998E-2</v>
       </c>
       <c r="N11" s="19">
         <f t="shared" si="2"/>
-        <v>81.620477788095414</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>271.00995181650387</v>
+      </c>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -2978,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="14">
+      <c r="I12" s="27">
         <f>IF(H12="",0,+VLOOKUP(H12,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
@@ -2996,9 +3161,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O12" s="17" t="s">
-        <v>100</v>
-      </c>
+      <c r="O12" s="17"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -3030,7 +3193,7 @@
       <c r="H13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="27">
         <f>IF(H13="",0,+VLOOKUP(H13,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -3079,7 +3242,7 @@
       <c r="H14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="27">
         <f>IF(H14="",0,+VLOOKUP(H14,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -3128,7 +3291,7 @@
       <c r="H15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="27">
         <f>IF(H15="",0,+VLOOKUP(H15,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -3177,7 +3340,7 @@
       <c r="H16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="27">
         <f>IF(H16="",0,+VLOOKUP(H16,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -3226,7 +3389,7 @@
       <c r="H17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="27">
         <f>IF(H17="",0,+VLOOKUP(H17,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -3275,7 +3438,7 @@
       <c r="H18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="27">
         <f>IF(H18="",0,+VLOOKUP(H18,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -3324,7 +3487,7 @@
       <c r="H19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="27">
         <f>IF(H19="",0,+VLOOKUP(H19,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -3373,7 +3536,7 @@
       <c r="H20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="27">
         <f>IF(H20="",0,+VLOOKUP(H20,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -3392,7 +3555,7 @@
         <v>91.323611511155718</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -3422,7 +3585,7 @@
       <c r="H21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="27">
         <f>IF(H21="",0,+VLOOKUP(H21,Aberturas!A:B,2,FALSE))</f>
         <v>2.1000000000000001E-2</v>
       </c>
@@ -3431,20 +3594,20 @@
         <f>IF(J21="",0,+VLOOKUP(J21,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="21">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="M21" s="13">
         <f t="shared" si="1"/>
-        <v>2.1000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="N21" s="19">
         <f t="shared" si="2"/>
-        <v>149.82780013548981</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <v>278.2516288230525</v>
+      </c>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
@@ -3474,7 +3637,7 @@
       <c r="H22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="27">
         <f>IF(H22="",0,+VLOOKUP(H22,Aberturas!A:B,2,FALSE))</f>
         <v>2.1000000000000001E-2</v>
       </c>
@@ -3483,18 +3646,18 @@
         <f>IF(J22="",0,+VLOOKUP(J22,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="21">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="M22" s="13">
         <f t="shared" si="1"/>
-        <v>2.1000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="N22" s="19">
         <f t="shared" si="2"/>
-        <v>149.82780013548981</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>99</v>
-      </c>
+        <v>278.2516288230525</v>
+      </c>
+      <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
@@ -3540,7 +3703,7 @@
         <v>PASILLO DE IMÁGENES</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="4" t="str">
         <f>+VLOOKUP(C28,Locales!A:E,2,FALSE)</f>
@@ -3561,7 +3724,7 @@
       <c r="H28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="27">
         <f>IF(H28="",0,+VLOOKUP(H28,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -3582,7 +3745,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>+VLOOKUP(A29,Locales!A:E,2,FALSE)</f>
@@ -3610,7 +3773,7 @@
       <c r="H29" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="27">
         <f>IF(H29="",0,+VLOOKUP(H29,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -3631,14 +3794,14 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B30" s="4" t="str">
         <f>+VLOOKUP(A30,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D30" s="4" t="str">
         <f>+VLOOKUP(C30,Locales!A:E,2,FALSE)</f>
@@ -3659,7 +3822,7 @@
       <c r="H30" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="27">
         <f>IF(H30="",0,+VLOOKUP(H30,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -3680,14 +3843,14 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>+VLOOKUP(A31,Locales!A:E,2,FALSE)</f>
         <v>SALA DE CIRUGÍA</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" s="4" t="str">
         <f>+VLOOKUP(C31,Locales!A:E,2,FALSE)</f>
@@ -3708,7 +3871,7 @@
       <c r="H31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="27">
         <f>IF(H31="",0,+VLOOKUP(H31,Aberturas!A:B,2,FALSE))</f>
         <v>1.32E-2</v>
       </c>
@@ -3729,14 +3892,14 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B32" s="4" t="str">
         <f>+VLOOKUP(A32,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="4" t="str">
         <f>+VLOOKUP(C32,Locales!A:E,2,FALSE)</f>
@@ -3757,7 +3920,7 @@
       <c r="H32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="27">
         <f>IF(H32="",0,+VLOOKUP(H32,Aberturas!A:B,2,FALSE))</f>
         <v>1.1440000000000001E-2</v>
       </c>
@@ -3776,16 +3939,16 @@
         <v>141.37081446702831</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B33" s="4" t="str">
         <f>+VLOOKUP(A33,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="4" t="str">
         <f>+VLOOKUP(C33,Locales!A:E,2,FALSE)</f>
@@ -3806,7 +3969,7 @@
       <c r="H33" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="27">
         <f>IF(H33="",0,+VLOOKUP(H33,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -3825,16 +3988,16 @@
         <v>158.17713506800368</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>+VLOOKUP(A34,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="4" t="str">
         <f>+VLOOKUP(C34,Locales!A:E,2,FALSE)</f>
@@ -3855,7 +4018,7 @@
       <c r="H34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="27">
         <f>IF(H34="",0,+VLOOKUP(H34,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -3874,16 +4037,16 @@
         <v>158.17713506800368</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" s="4" t="str">
         <f>+VLOOKUP(A35,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="4" t="str">
         <f>+VLOOKUP(C35,Locales!A:E,2,FALSE)</f>
@@ -3904,7 +4067,7 @@
       <c r="H35" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="27">
         <f>IF(H35="",0,+VLOOKUP(H35,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -3923,9 +4086,9 @@
         <v>158.17713506800368</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" s="4" t="str">
         <f>+VLOOKUP(A36,Locales!A:E,2,FALSE)</f>
@@ -3951,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="14">
+      <c r="I36" s="27">
         <f>IF(H36="",0,+VLOOKUP(H36,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
@@ -3965,24 +4128,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="25">
         <f>+N49+N47</f>
         <v>311.88850697213513</v>
       </c>
-      <c r="O36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B37" s="4" t="str">
         <f>+VLOOKUP(A37,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4" t="str">
         <f>+VLOOKUP(C37,Locales!A:E,2,FALSE)</f>
@@ -4003,7 +4163,7 @@
       <c r="H37" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="27">
         <f>IF(H37="",0,+VLOOKUP(H37,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -4022,16 +4182,16 @@
         <v>95.319019514768769</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B38" s="4" t="str">
         <f>+VLOOKUP(A38,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="4" t="str">
         <f>+VLOOKUP(C38,Locales!A:E,2,FALSE)</f>
@@ -4052,7 +4212,7 @@
       <c r="H38" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="27">
         <f>IF(H38="",0,+VLOOKUP(H38,Aberturas!A:B,2,FALSE))</f>
         <v>1.1599999999999999E-2</v>
       </c>
@@ -4071,16 +4231,16 @@
         <v>82.762022931984845</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B39" s="4" t="str">
         <f>+VLOOKUP(A39,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="4" t="str">
         <f>+VLOOKUP(C39,Locales!A:E,2,FALSE)</f>
@@ -4101,7 +4261,7 @@
       <c r="H39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="27">
         <f>IF(H39="",0,+VLOOKUP(H39,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -4120,16 +4280,16 @@
         <v>233.48296059357568</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B40" s="4" t="str">
         <f>+VLOOKUP(A40,Locales!A:E,2,FALSE)</f>
         <v>CUARENTENA</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="4" t="str">
         <f>+VLOOKUP(C40,Locales!A:E,2,FALSE)</f>
@@ -4150,7 +4310,7 @@
       <c r="H40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="27">
         <f>IF(H40="",0,+VLOOKUP(H40,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -4169,16 +4329,16 @@
         <v>165.09738472722884</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" s="4" t="str">
         <f>+VLOOKUP(A41,Locales!A:E,2,FALSE)</f>
         <v>ÁREA DE LIMPIEZA</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D41" s="4" t="str">
         <f>+VLOOKUP(C41,Locales!A:E,2,FALSE)</f>
@@ -4199,7 +4359,7 @@
       <c r="H41" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="27">
         <f>IF(H41="",0,+VLOOKUP(H41,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -4218,16 +4378,16 @@
         <v>182.64722302231144</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B42" s="4" t="str">
         <f>+VLOOKUP(A42,Locales!A:E,2,FALSE)</f>
         <v>CUARENTENA</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D42" s="4" t="str">
         <f>+VLOOKUP(C42,Locales!A:E,2,FALSE)</f>
@@ -4248,7 +4408,7 @@
       <c r="H42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="27">
         <f>IF(H42="",0,+VLOOKUP(H42,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -4267,16 +4427,16 @@
         <v>165.09738472722884</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B43" s="4" t="str">
         <f>+VLOOKUP(A43,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" s="4" t="str">
         <f>+VLOOKUP(C43,Locales!A:E,2,FALSE)</f>
@@ -4297,7 +4457,7 @@
       <c r="H43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="27">
         <f>IF(H43="",0,+VLOOKUP(H43,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -4316,16 +4476,16 @@
         <v>129.1510899639681</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B44" s="4" t="str">
         <f>+VLOOKUP(A44,Locales!A:E,2,FALSE)</f>
         <v>PASILLO LIMPIO - ETAPA 2</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44" s="4" t="str">
         <f>+VLOOKUP(C44,Locales!A:E,2,FALSE)</f>
@@ -4346,7 +4506,7 @@
       <c r="H44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="27">
         <f>IF(H44="",0,+VLOOKUP(H44,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -4365,16 +4525,16 @@
         <v>129.1510899639681</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B45" s="4" t="str">
         <f>+VLOOKUP(A45,Locales!A:E,2,FALSE)</f>
         <v>BIOTERIO 1</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D45" s="4" t="str">
         <f>+VLOOKUP(C45,Locales!A:E,2,FALSE)</f>
@@ -4395,7 +4555,7 @@
       <c r="H45" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="27">
         <f>IF(H45="",0,+VLOOKUP(H45,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -4414,16 +4574,16 @@
         <v>190.63803902953754</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B46" s="4" t="str">
         <f>+VLOOKUP(A46,Locales!A:E,2,FALSE)</f>
         <v>BIOTERIO 2</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D46" s="4" t="str">
         <f>+VLOOKUP(C46,Locales!A:E,2,FALSE)</f>
@@ -4444,7 +4604,7 @@
       <c r="H46" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="27">
         <f>IF(H46="",0,+VLOOKUP(H46,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -4463,7 +4623,7 @@
         <v>190.63803902953754</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>71</v>
       </c>
@@ -4472,7 +4632,7 @@
         <v>PASILLO LIMPIO - ETAPA 1</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D47" s="4" t="str">
         <f>+VLOOKUP(C47,Locales!A:E,2,FALSE)</f>
@@ -4493,7 +4653,7 @@
       <c r="H47" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="27">
         <f>IF(H47="",0,+VLOOKUP(H47,Aberturas!A:B,2,FALSE))</f>
         <v>2.1000000000000001E-2</v>
       </c>
@@ -4512,16 +4672,16 @@
         <v>211.88850697213516</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B48" s="4" t="str">
         <f>+VLOOKUP(A48,Locales!A:E,2,FALSE)</f>
         <v>SALA DE CRÍA</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D48" s="4" t="str">
         <f>+VLOOKUP(C48,Locales!A:E,2,FALSE)</f>
@@ -4542,7 +4702,7 @@
       <c r="H48" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="27">
         <f>IF(H48="",0,+VLOOKUP(H48,Aberturas!A:B,2,FALSE))</f>
         <v>1.336E-2</v>
       </c>
@@ -4570,7 +4730,7 @@
         <v>PASILLO LIMPIO - ETAPA 1</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" s="4" t="str">
         <f>+VLOOKUP(C49,Locales!A:E,2,FALSE)</f>
@@ -4589,7 +4749,7 @@
         <v>10</v>
       </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="14">
+      <c r="I49" s="27">
         <f>IF(H49="",0,+VLOOKUP(H49,Aberturas!A:B,2,FALSE))</f>
         <v>0</v>
       </c>
@@ -4603,13 +4763,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N49" s="26">
+      <c r="N49" s="25">
         <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B50" s="4" t="str">
         <f>+VLOOKUP(A50,Locales!A:E,2,FALSE)</f>
@@ -4637,7 +4797,7 @@
       <c r="H50" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="27">
         <f>IF(H50="",0,+VLOOKUP(H50,Aberturas!A:B,2,FALSE))</f>
         <v>1.1599999999999999E-2</v>
       </c>
@@ -4658,14 +4818,14 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" s="4" t="str">
         <f>+VLOOKUP(A51,Locales!A:E,2,FALSE)</f>
         <v>SAS TÉCNICO</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D51" s="4" t="str">
         <f>+VLOOKUP(C51,Locales!A:E,2,FALSE)</f>
@@ -4686,7 +4846,7 @@
       <c r="H51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="27">
         <f>IF(H51="",0,+VLOOKUP(H51,Aberturas!A:B,2,FALSE))</f>
         <v>1.1599999999999999E-2</v>
       </c>
@@ -4714,7 +4874,7 @@
         <v>PASILLO</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D52" s="4" t="str">
         <f>+VLOOKUP(C52,Locales!A:E,2,FALSE)</f>
@@ -4735,7 +4895,7 @@
       <c r="H52" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="27">
         <f>IF(H52="",0,+VLOOKUP(H52,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -4763,7 +4923,7 @@
         <v>PASILLO</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D53" s="4" t="str">
         <f>+VLOOKUP(C53,Locales!A:E,2,FALSE)</f>
@@ -4784,7 +4944,7 @@
       <c r="H53" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="27">
         <f>IF(H53="",0,+VLOOKUP(H53,Aberturas!A:B,2,FALSE))</f>
         <v>1.2800000000000001E-2</v>
       </c>
@@ -4805,14 +4965,14 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B54" s="4" t="str">
         <f>+VLOOKUP(A54,Locales!A:E,2,FALSE)</f>
         <v>DEPÓSITO 1</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D54" s="4" t="str">
         <f>+VLOOKUP(C54,Locales!A:E,2,FALSE)</f>
@@ -4833,7 +4993,7 @@
       <c r="H54" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="27">
         <f>IF(H54="",0,+VLOOKUP(H54,Aberturas!A:B,2,FALSE))</f>
         <v>1.3599999999999999E-2</v>
       </c>
@@ -4873,7 +5033,7 @@
           <x14:formula1>
             <xm:f>Aberturas!$A$3:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H22 J2:J22 H28:H54 J28:J54 L2:L22 L28:L54</xm:sqref>
+          <xm:sqref>H2:H22 J2:J22 H28:H54 J28:J54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B2DD5637-5D5A-4E88-86F0-14ABF1FBCFCB}">
           <x14:formula1>
@@ -4891,8 +5051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11251D18-82D2-42EF-98CA-8995997C3D7B}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5342,7 +5502,7 @@
       </c>
       <c r="C25" s="14">
         <f>SUMIF(Infiltración!$A:$A,A25,Infiltración!$N:$N)</f>
-        <v>134.80058011728639</v>
+        <v>254.79994464379524</v>
       </c>
       <c r="D25" s="14">
         <f>SUMIF(Infiltración!$C:$C,A25,Infiltración!$N:$N)</f>
@@ -5418,7 +5578,7 @@
       </c>
       <c r="D29" s="14">
         <f>SUMIF(Infiltración!$C:$C,A29,Infiltración!$N:$N)</f>
-        <v>0</v>
+        <v>119.99936452650884</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5432,11 +5592,11 @@
       </c>
       <c r="C30" s="14">
         <f>SUMIF(Infiltración!$A:$A,A30,Infiltración!$N:$N)</f>
-        <v>633.71404356310347</v>
+        <v>1728.5271831245755</v>
       </c>
       <c r="D30" s="14">
         <f>SUMIF(Infiltración!$C:$C,A30,Infiltración!$N:$N)</f>
-        <v>952.9671980158422</v>
+        <v>1209.8148553909675</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5616,7 +5776,7 @@
       </c>
       <c r="D40" s="14">
         <f>SUMIF(Infiltración!$C:$C,A40,Infiltración!$N:$N)</f>
-        <v>81.620477788095414</v>
+        <v>362.01250375594066</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5634,7 +5794,7 @@
       </c>
       <c r="D41" s="14">
         <f>SUMIF(Infiltración!$C:$C,A41,Infiltración!$N:$N)</f>
-        <v>81.620477788095414</v>
+        <v>251.99609051359528</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5652,7 +5812,7 @@
       </c>
       <c r="D42" s="14">
         <f>SUMIF(Infiltración!$C:$C,A42,Infiltración!$N:$N)</f>
-        <v>86.757430935597924</v>
+        <v>152.00387056602909</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5670,7 +5830,7 @@
       </c>
       <c r="D43" s="14">
         <f>SUMIF(Infiltración!$C:$C,A43,Infiltración!$N:$N)</f>
-        <v>81.620477788095414</v>
+        <v>271.00995181650387</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5684,7 +5844,7 @@
       </c>
       <c r="C44" s="14">
         <f>SUMIF(Infiltración!$A:$A,A44,Infiltración!$N:$N)</f>
-        <v>149.82780013548981</v>
+        <v>278.2516288230525</v>
       </c>
       <c r="D44" s="14">
         <f>SUMIF(Infiltración!$C:$C,A44,Infiltración!$N:$N)</f>
@@ -5702,7 +5862,7 @@
       </c>
       <c r="C45" s="14">
         <f>SUMIF(Infiltración!$A:$A,A45,Infiltración!$N:$N)</f>
-        <v>149.82780013548981</v>
+        <v>278.2516288230525</v>
       </c>
       <c r="D45" s="14">
         <f>SUMIF(Infiltración!$C:$C,A45,Infiltración!$N:$N)</f>
@@ -5724,7 +5884,7 @@
       </c>
       <c r="D46" s="14">
         <f>SUMIF(Infiltración!$C:$C,A46,Infiltración!$N:$N)</f>
-        <v>81.620477788095414</v>
+        <v>471.03006499738274</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5785,74 +5945,74 @@
         <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="20">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
         <f>+B3*100*100</f>
         <v>0</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="21">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
         <f t="shared" ref="C4:C31" si="0">+B4*100*100</f>
         <v>0</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="21">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="21">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>1.12E-2</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <f t="shared" si="0"/>
         <v>111.99999999999999</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>147</v>
+      <c r="D7" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="E7" t="str">
         <f>LEFT(D7, LEN(D7) - 6)</f>
@@ -5871,15 +6031,15 @@
       <c r="A8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>1.1440000000000001E-2</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <f t="shared" si="0"/>
         <v>114.4</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>148</v>
+      <c r="D8" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ref="E8:E31" si="1">LEFT(D8, LEN(D8) - 6)</f>
@@ -5898,15 +6058,15 @@
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>1.2160000000000001E-2</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <f t="shared" si="0"/>
         <v>121.6</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>149</v>
+      <c r="D9" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
@@ -5925,15 +6085,15 @@
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>1.72E-2</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <f t="shared" si="0"/>
         <v>172</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>150</v>
+      <c r="D10" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
@@ -5952,15 +6112,15 @@
       <c r="A11" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>2.044E-2</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <f t="shared" si="0"/>
         <v>204.4</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>151</v>
+      <c r="D11" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
@@ -5979,15 +6139,15 @@
       <c r="A12" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>152</v>
+      <c r="D12" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
@@ -6006,15 +6166,15 @@
       <c r="A13" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <f t="shared" si="0"/>
         <v>225.99999999999997</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>153</v>
+      <c r="D13" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
@@ -6033,15 +6193,15 @@
       <c r="A14" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>1.72E-2</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <f t="shared" si="0"/>
         <v>172</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>150</v>
+      <c r="D14" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
@@ -6060,15 +6220,15 @@
       <c r="A15" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>1.12E-2</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <f t="shared" si="0"/>
         <v>111.99999999999999</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>147</v>
+      <c r="D15" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
@@ -6087,15 +6247,15 @@
       <c r="A16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>1.336E-2</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <f t="shared" si="0"/>
         <v>133.6</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>154</v>
+      <c r="D16" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
@@ -6114,15 +6274,15 @@
       <c r="A17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>155</v>
+      <c r="D17" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
@@ -6141,15 +6301,15 @@
       <c r="A18" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>1.336E-2</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <f t="shared" si="0"/>
         <v>133.6</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>154</v>
+      <c r="D18" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
@@ -6168,15 +6328,15 @@
       <c r="A19" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>1.336E-2</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <f t="shared" si="0"/>
         <v>133.6</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>154</v>
+      <c r="D19" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
@@ -6195,15 +6355,15 @@
       <c r="A20" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>152</v>
+      <c r="D20" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
@@ -6222,15 +6382,15 @@
       <c r="A21" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>1.336E-2</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <f t="shared" si="0"/>
         <v>133.6</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>154</v>
+      <c r="D21" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
@@ -6249,15 +6409,15 @@
       <c r="A22" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>156</v>
+      <c r="D22" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
@@ -6276,15 +6436,15 @@
       <c r="A23" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>156</v>
+      <c r="D23" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
@@ -6303,15 +6463,15 @@
       <c r="A24" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>156</v>
+      <c r="D24" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
@@ -6330,15 +6490,15 @@
       <c r="A25" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>1.32E-2</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>157</v>
+      <c r="D25" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
@@ -6357,15 +6517,15 @@
       <c r="A26" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <f t="shared" si="0"/>
         <v>115.99999999999999</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>158</v>
+      <c r="D26" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
@@ -6384,15 +6544,15 @@
       <c r="A27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>156</v>
+      <c r="D27" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="1"/>
@@ -6411,15 +6571,15 @@
       <c r="A28" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>156</v>
+      <c r="D28" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
@@ -6438,15 +6598,15 @@
       <c r="A29" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="22">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>155</v>
+      <c r="D29" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="1"/>
@@ -6465,15 +6625,15 @@
       <c r="A30" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>1.46E-2</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>159</v>
+      <c r="D30" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="1"/>
@@ -6490,17 +6650,17 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="21">
+        <v>157</v>
+      </c>
+      <c r="B31" s="20">
         <v>1.32E-2</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="22">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>157</v>
+      <c r="D31" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
